--- a/medicine/Enfance/Michèle_Simonsen/Michèle_Simonsen.xlsx
+++ b/medicine/Enfance/Michèle_Simonsen/Michèle_Simonsen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Simonsen</t>
+          <t>Michèle_Simonsen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michèle Simonsen est une auteure française née le 11 mai 1941 en France, installée au Danemark, également traductrice, spécialiste de la littérature orale et des traditions populaires[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michèle Simonsen est une auteure française née le 11 mai 1941 en France, installée au Danemark, également traductrice, spécialiste de la littérature orale et des traditions populaires.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Simonsen</t>
+          <t>Michèle_Simonsen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir suivi des études à l’IDHEC (Institut des Hautes Études cinématographiques), Michèle Simonsen réside en Angleterre pendant cinq ans, avant de s'installer au Danemark en 1967 à titre définitif. 
-Elle obtient une maîtrise de français à l’université de Copenhague, puis elle enseigne le français, l’ethnologie et le folklore dans cette même université, de 1972 à 1997[2]. Dans ce contexte, elle a écrit des livres et de nombreux articles sur les contes, les traditions festives et les rituels populaires. En 1999-2000, Michèle Simonsen suit les cours de l’École de littérature pour la jeunesse de Copenhague. Depuis, elle écrit à la fois pour la jeunesse et les adultes[3],[4],[5],[2].
+Elle obtient une maîtrise de français à l’université de Copenhague, puis elle enseigne le français, l’ethnologie et le folklore dans cette même université, de 1972 à 1997. Dans ce contexte, elle a écrit des livres et de nombreux articles sur les contes, les traditions festives et les rituels populaires. En 1999-2000, Michèle Simonsen suit les cours de l’École de littérature pour la jeunesse de Copenhague. Depuis, elle écrit à la fois pour la jeunesse et les adultes.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mich%C3%A8le_Simonsen</t>
+          <t>Michèle_Simonsen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Michèle Simonsen a écrit plus d'une vingtaine d'ouvrages[6],[7],[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Michèle Simonsen a écrit plus d'une vingtaine d'ouvrages.
 Le cimetière des parpaillots, les Éditions du Net, 2017.
 Le tandem volant, Magali Ben (illustrations), Rouge safran, 2017.
 Les deniers de compère Lapin, Magali Le Huche (illustrations), Didier jeunesse, 2015.
